--- a/docs/Edited_Data.xlsx
+++ b/docs/Edited_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musti\Documents\GitHub\CAP6119Project-DataVisualization\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738A9353-1152-484E-97A5-79669D1A81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D29E3A-F1B8-486A-81A7-6985E21B150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51963C1D-7F40-40C9-8CD6-6139EEEED041}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DD2078A-13E3-4FEC-A03D-935D964B4714}"/>
   </bookViews>
   <sheets>
     <sheet name="Edited_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="553">
   <si>
     <t>Kingdom</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Ocean Surgeonfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Acanthuridae.prefab</t>
+  </si>
+  <si>
     <t>Acanthurus chirurgus</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Fused Staghorn Coral</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Acroporidae.prefab</t>
+  </si>
+  <si>
     <t>Acropora palmata</t>
   </si>
   <si>
@@ -148,9 +154,6 @@
     <t>Giant Caribbean Sea Anemone</t>
   </si>
   <si>
-    <t xml:space="preserve">https://skfb.ly/VTGp </t>
-  </si>
-  <si>
     <t>Porifera</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>Golden Sponge</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Aplysinidae.prefab</t>
+  </si>
+  <si>
     <t>Aplysina fistularis</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>Chinese Trumpetfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Aulostomidae.prefab</t>
+  </si>
+  <si>
     <t>Aulostomus maculatus</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
     <t>Rough Triggerfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Balistidae.prefab</t>
+  </si>
+  <si>
     <t>Canthidermis sufflamen</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
     <t>Peacock Flounder</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Bothidae.prefab</t>
+  </si>
+  <si>
     <t>Bothus ocellatus</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t>Atlantic Rock Crab</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Cancridae.prefab</t>
+  </si>
+  <si>
     <t>Carangidae</t>
   </si>
   <si>
@@ -286,6 +304,9 @@
     <t>Unspecified</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Carangidae.prefab</t>
+  </si>
+  <si>
     <t>Carangoides bartholomaei</t>
   </si>
   <si>
@@ -316,6 +337,9 @@
     <t>Gray Reef Shark</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Carcharhinidae.prefab</t>
+  </si>
+  <si>
     <t>Carcharhinus falciformis</t>
   </si>
   <si>
@@ -358,6 +382,9 @@
     <t>Four Eye Butterflyfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Chaetodontidae.prefab</t>
+  </si>
+  <si>
     <t>Chaetodon ocellatus</t>
   </si>
   <si>
@@ -394,9 +421,15 @@
     <t>Loggerhead Sea Turtle</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Caretta.prefab</t>
+  </si>
+  <si>
     <t>Chelonia</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Chelonia.prefab</t>
+  </si>
+  <si>
     <t>Chelonia mydas</t>
   </si>
   <si>
@@ -406,6 +439,9 @@
     <t>Eretmochelys</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Eretmochelys.prefab</t>
+  </si>
+  <si>
     <t>Eretmochelys imbricata</t>
   </si>
   <si>
@@ -427,6 +463,9 @@
     <t>Black Spotted Garden Eel</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Congridae.prefab</t>
+  </si>
+  <si>
     <t>Heteroconger longissimus</t>
   </si>
   <si>
@@ -448,6 +487,9 @@
     <t>Whip Stingray</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Dasyatidae.prefab</t>
+  </si>
+  <si>
     <t>Dasyatis americana</t>
   </si>
   <si>
@@ -508,6 +550,9 @@
     <t>Long-spined Porcupinefish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Diodontidae.prefab</t>
+  </si>
+  <si>
     <t>Diodon liturosus</t>
   </si>
   <si>
@@ -526,6 +571,9 @@
     <t>Giant Hermit Crab</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Diogenidae.prefab</t>
+  </si>
+  <si>
     <t>Faviidae</t>
   </si>
   <si>
@@ -562,6 +610,9 @@
     <t>Nurse Shark</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Ginglymostomatidae.prefab</t>
+  </si>
+  <si>
     <t>Alcyonacea</t>
   </si>
   <si>
@@ -577,6 +628,9 @@
     <t>Purple Sea Fan</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Gorgoniidae.prefab</t>
+  </si>
+  <si>
     <t>Haemulidae</t>
   </si>
   <si>
@@ -589,6 +643,9 @@
     <t>Black-tail Grunt</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Haemulidae.prefab</t>
+  </si>
+  <si>
     <t>Haemulon chrysargyreum</t>
   </si>
   <si>
@@ -661,6 +718,9 @@
     <t>Yellowhead Wrasse</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Labridae.prefab</t>
+  </si>
+  <si>
     <t>Halichoeres maculipinna</t>
   </si>
   <si>
@@ -700,12 +760,18 @@
     <t>Caribbean Reef Squid</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Loliginidae.prefab</t>
+  </si>
+  <si>
     <t>Lutjanidae</t>
   </si>
   <si>
     <t>Lutjanus</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Lutjanidae.prefab</t>
+  </si>
+  <si>
     <t>Lutjanus apodus</t>
   </si>
   <si>
@@ -751,6 +817,9 @@
     <t>Pillar Coral</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Meandrinidae.prefab</t>
+  </si>
+  <si>
     <t>Elopiformes</t>
   </si>
   <si>
@@ -766,6 +835,9 @@
     <t>Atlantic Tarpon</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Megalopidae.prefab</t>
+  </si>
+  <si>
     <t>Hydrozoa</t>
   </si>
   <si>
@@ -796,6 +868,9 @@
     <t>Orange Filefish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Monacanthidae.prefab</t>
+  </si>
+  <si>
     <t>Aluterus scriptus</t>
   </si>
   <si>
@@ -814,6 +889,9 @@
     <t>Chain Moray</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Muraenidae.prefab</t>
+  </si>
+  <si>
     <t>Gymnothorax</t>
   </si>
   <si>
@@ -925,6 +1003,9 @@
     <t>Spiny Flower Coral</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Mussidae.prefab</t>
+  </si>
+  <si>
     <t>Myliobatidae</t>
   </si>
   <si>
@@ -937,6 +1018,9 @@
     <t>Spotted Eagle Ray</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Myliobatidae.prefab</t>
+  </si>
+  <si>
     <t>Myliobatis</t>
   </si>
   <si>
@@ -961,6 +1045,9 @@
     <t>Octopus</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Octopodidae.prefab</t>
+  </si>
+  <si>
     <t>Octopus briareus</t>
   </si>
   <si>
@@ -991,6 +1078,9 @@
     <t>Sharptail Eel</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Ophichthidae.prefab</t>
+  </si>
+  <si>
     <t>Myrichthys ocellatus</t>
   </si>
   <si>
@@ -1009,6 +1099,9 @@
     <t>Honeycomb Cowfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Ostraciidae.prefab</t>
+  </si>
+  <si>
     <t>Acanthostracion quadricornis</t>
   </si>
   <si>
@@ -1042,6 +1135,9 @@
     <t>European Spiny Lobster</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Palinuridae.prefab</t>
+  </si>
+  <si>
     <t>Panulirus</t>
   </si>
   <si>
@@ -1078,6 +1174,9 @@
     <t>West African Angelfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Holacanthus.prefab</t>
+  </si>
+  <si>
     <t>Holacanthus bermudensis</t>
   </si>
   <si>
@@ -1111,6 +1210,9 @@
     <t>Gray Angelfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Pomacanthus.prefab</t>
+  </si>
+  <si>
     <t>Pomacanthus imperator</t>
   </si>
   <si>
@@ -1135,6 +1237,9 @@
     <t>Sergeant Major</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Pomacentridae.prefab</t>
+  </si>
+  <si>
     <t>Abudefduf troschelii</t>
   </si>
   <si>
@@ -1234,6 +1339,9 @@
     <t>Rainbow Parrotfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Scaridae.prefab</t>
+  </si>
+  <si>
     <t>Scarus psittacus</t>
   </si>
   <si>
@@ -1291,6 +1399,9 @@
     <t>Jackknife Fish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Sciaenidae.prefab</t>
+  </si>
+  <si>
     <t>Equetus punctatus</t>
   </si>
   <si>
@@ -1309,6 +1420,9 @@
     <t>Wahoo</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Scombridae.prefab</t>
+  </si>
+  <si>
     <t>Scorpaeniformes</t>
   </si>
   <si>
@@ -1318,6 +1432,9 @@
     <t>Pterois</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Pterois.prefab</t>
+  </si>
+  <si>
     <t>Pterois antennata</t>
   </si>
   <si>
@@ -1339,6 +1456,9 @@
     <t>Grass Scorpionfish</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Scorpaena.prefab</t>
+  </si>
+  <si>
     <t>Scorpaena inermis</t>
   </si>
   <si>
@@ -1363,6 +1483,9 @@
     <t>Epinephelus</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Serranidae.prefab</t>
+  </si>
+  <si>
     <t>Epinephelus aeneus</t>
   </si>
   <si>
@@ -1414,6 +1537,9 @@
     <t>Sphyraena</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Sphyraenidae.prefab</t>
+  </si>
+  <si>
     <t>Sphyraena barracuda</t>
   </si>
   <si>
@@ -1468,6 +1594,9 @@
     <t>Hippocampus</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Syngnathidae.prefab</t>
+  </si>
+  <si>
     <t>Hippocampus erectus</t>
   </si>
   <si>
@@ -1522,6 +1651,9 @@
     <t>Southern Puffer</t>
   </si>
   <si>
+    <t>Assets/SpecimenPrefabs/Tetraodontidae.prefab</t>
+  </si>
+  <si>
     <t>Sphoeroides rosenblatti</t>
   </si>
   <si>
@@ -1546,146 +1678,14 @@
     <t>Speckled Puffer</t>
   </si>
   <si>
-    <t>Assets/SpecimenPrefabs/Acanthuridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Acroporidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Aplysinidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Aulostomidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Balistidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Bothidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Cancridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Carangidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Carcharhinidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Chaetodontidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Caretta.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Chelonia.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Eretmochelys.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Congridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Dasyatidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Diodontidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Diogenidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Ginglymostomatidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Gorgoniidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Haemulidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Labridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Loliginidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Lutjanidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Meandrinidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Megalopidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Monacanthidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Muraenidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Mussidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Myliobatidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Octopodidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Ophichthidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Ostraciidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Palinuridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Holacanthus.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Pomacanthus.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Pomacentridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Scaridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Sciaenidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Scombridae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Pterois.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Scorpaena.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Serranidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Sphyraenidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Syngnathidae.prefab</t>
-  </si>
-  <si>
-    <t>Assets/SpecimenPrefabs/Tetraodontidae.prefab</t>
+    <t>Assets/SpecimenPrefabs/Actiniidae.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,20 +1816,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2132,7 +2118,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2175,13 +2161,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2215,7 +2199,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2555,11 +2538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31135E37-B2CA-4D9C-A870-AF120582DF24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF6C6AD-53C2-4C9C-85FD-C48C3B11B0A7}">
   <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2555,7 @@
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -2650,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>508</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -2688,13 +2671,13 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>508</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -2732,13 +2715,13 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
@@ -2761,28 +2744,28 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>509</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
@@ -2805,28 +2788,28 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>509</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -2849,28 +2832,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>509</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
@@ -2893,28 +2876,31 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>552</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -2934,28 +2920,28 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>510</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
@@ -2978,28 +2964,28 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
         <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>510</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
@@ -3028,22 +3014,22 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>511</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>4</v>
@@ -3072,22 +3058,22 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>511</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
         <v>4</v>
@@ -3116,22 +3102,22 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>512</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
@@ -3160,22 +3146,22 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>512</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
@@ -3204,22 +3190,22 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>512</v>
       </c>
       <c r="J15" t="s">
         <v>4</v>
@@ -3248,22 +3234,22 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
@@ -3292,22 +3278,22 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
         <v>4</v>
@@ -3336,22 +3322,22 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
         <v>4</v>
@@ -3374,28 +3360,28 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>514</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
@@ -3427,19 +3413,19 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>515</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
         <v>4</v>
@@ -3471,19 +3457,19 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>515</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
@@ -3515,19 +3501,19 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>515</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
         <v>4</v>
@@ -3553,25 +3539,25 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
         <v>4</v>
@@ -3597,25 +3583,25 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
         <v>4</v>
@@ -3641,25 +3627,25 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
         <v>4</v>
@@ -3685,25 +3671,25 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
         <v>4</v>
@@ -3729,25 +3715,25 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" t="s">
         <v>105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>516</v>
       </c>
       <c r="J27" t="s">
         <v>4</v>
@@ -3773,25 +3759,25 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I28" t="s">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
         <v>4</v>
@@ -3823,19 +3809,19 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I29" t="s">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="J29" t="s">
         <v>4</v>
@@ -3867,19 +3853,19 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s">
         <v>4</v>
@@ -3911,19 +3897,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
         <v>4</v>
@@ -3955,19 +3941,19 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
         <v>4</v>
@@ -3993,25 +3979,25 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>518</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
         <v>5</v>
@@ -4037,25 +4023,25 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>519</v>
+        <v>135</v>
       </c>
       <c r="J34" t="s">
         <v>5</v>
@@ -4081,25 +4067,25 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>519</v>
+        <v>135</v>
       </c>
       <c r="J35" t="s">
         <v>5</v>
@@ -4125,25 +4111,25 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="J36" t="s">
         <v>5</v>
@@ -4169,25 +4155,25 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="J37" t="s">
         <v>5</v>
@@ -4216,22 +4202,22 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
-        <v>521</v>
+        <v>147</v>
       </c>
       <c r="J38" t="s">
         <v>4</v>
@@ -4260,22 +4246,22 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>521</v>
+        <v>147</v>
       </c>
       <c r="J39" t="s">
         <v>4</v>
@@ -4301,25 +4287,25 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="I40" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
@@ -4345,25 +4331,25 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J41" t="s">
         <v>4</v>
@@ -4389,25 +4375,25 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G42" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="I42" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J42" t="s">
         <v>4</v>
@@ -4433,25 +4419,25 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
         <v>4</v>
@@ -4477,25 +4463,25 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I44" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
         <v>4</v>
@@ -4521,25 +4507,25 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H45" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J45" t="s">
         <v>4</v>
@@ -4565,25 +4551,25 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H46" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I46" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J46" t="s">
         <v>4</v>
@@ -4609,25 +4595,25 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H47" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" t="s">
         <v>155</v>
-      </c>
-      <c r="I47" t="s">
-        <v>522</v>
       </c>
       <c r="J47" t="s">
         <v>4</v>
@@ -4653,25 +4639,25 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I48" t="s">
-        <v>522</v>
+        <v>155</v>
       </c>
       <c r="J48" t="s">
         <v>4</v>
@@ -4700,22 +4686,22 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="I49" t="s">
-        <v>523</v>
+        <v>176</v>
       </c>
       <c r="J49" t="s">
         <v>4</v>
@@ -4744,22 +4730,22 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
-        <v>523</v>
+        <v>176</v>
       </c>
       <c r="J50" t="s">
         <v>4</v>
@@ -4782,28 +4768,28 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="I51" t="s">
-        <v>524</v>
+        <v>183</v>
       </c>
       <c r="J51" t="s">
         <v>4</v>
@@ -4826,28 +4812,28 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H52" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I52" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J52" t="s">
         <v>4</v>
@@ -4870,28 +4856,28 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G53" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J53" t="s">
         <v>4</v>
@@ -4917,25 +4903,25 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I54" t="s">
-        <v>525</v>
+        <v>196</v>
       </c>
       <c r="J54" t="s">
         <v>4</v>
@@ -4958,28 +4944,28 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="I55" t="s">
-        <v>526</v>
+        <v>202</v>
       </c>
       <c r="J55" t="s">
         <v>4</v>
@@ -5011,19 +4997,19 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G56" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H56" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="I56" t="s">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="J56" t="s">
         <v>4</v>
@@ -5055,19 +5041,19 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H57" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="I57" t="s">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="J57" t="s">
         <v>4</v>
@@ -5099,19 +5085,19 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H58" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="I58" t="s">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="J58" t="s">
         <v>4</v>
@@ -5143,19 +5129,19 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="I59" t="s">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="J59" t="s">
         <v>4</v>
@@ -5184,22 +5170,22 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F60" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="I60" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J60" t="s">
         <v>4</v>
@@ -5228,22 +5214,22 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G61" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="I61" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J61" t="s">
         <v>4</v>
@@ -5272,22 +5258,22 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H62" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="I62" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J62" t="s">
         <v>4</v>
@@ -5316,22 +5302,22 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F63" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="I63" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J63" t="s">
         <v>4</v>
@@ -5360,22 +5346,22 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G64" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H64" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="I64" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J64" t="s">
         <v>4</v>
@@ -5407,19 +5393,19 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G65" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H65" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="I65" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="J65" t="s">
         <v>4</v>
@@ -5451,19 +5437,19 @@
         <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F66" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G66" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="I66" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="J66" t="s">
         <v>4</v>
@@ -5495,19 +5481,19 @@
         <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F67" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G67" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="I67" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="J67" t="s">
         <v>4</v>
@@ -5539,19 +5525,19 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="H68" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="I68" t="s">
-        <v>528</v>
+        <v>232</v>
       </c>
       <c r="J68" t="s">
         <v>4</v>
@@ -5574,28 +5560,28 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="G69" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="I69" t="s">
-        <v>529</v>
+        <v>246</v>
       </c>
       <c r="J69" t="s">
         <v>4</v>
@@ -5627,19 +5613,19 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F70" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G70" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>530</v>
+        <v>249</v>
       </c>
       <c r="J70" t="s">
         <v>4</v>
@@ -5671,19 +5657,19 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F71" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G71" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="I71" t="s">
-        <v>530</v>
+        <v>249</v>
       </c>
       <c r="J71" t="s">
         <v>4</v>
@@ -5715,19 +5701,19 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G72" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="H72" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="I72" t="s">
-        <v>530</v>
+        <v>249</v>
       </c>
       <c r="J72" t="s">
         <v>4</v>
@@ -5759,19 +5745,19 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="H73" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="I73" t="s">
-        <v>530</v>
+        <v>249</v>
       </c>
       <c r="J73" t="s">
         <v>4</v>
@@ -5803,19 +5789,19 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G74" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="H74" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="I74" t="s">
-        <v>530</v>
+        <v>249</v>
       </c>
       <c r="J74" t="s">
         <v>4</v>
@@ -5847,19 +5833,19 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F75" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="I75" t="s">
-        <v>530</v>
+        <v>249</v>
       </c>
       <c r="J75" t="s">
         <v>4</v>
@@ -5882,28 +5868,28 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G76" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="I76" t="s">
-        <v>531</v>
+        <v>265</v>
       </c>
       <c r="J76" t="s">
         <v>4</v>
@@ -5932,22 +5918,22 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E77" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="H77" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="I77" t="s">
-        <v>532</v>
+        <v>271</v>
       </c>
       <c r="J77" t="s">
         <v>4</v>
@@ -5970,28 +5956,28 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="E78" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="F78" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="I78" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J78" t="s">
         <v>4</v>
@@ -6020,22 +6006,22 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F79" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="I79" t="s">
-        <v>533</v>
+        <v>282</v>
       </c>
       <c r="J79" t="s">
         <v>4</v>
@@ -6064,22 +6050,22 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F80" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G80" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="I80" t="s">
-        <v>533</v>
+        <v>282</v>
       </c>
       <c r="J80" t="s">
         <v>4</v>
@@ -6108,22 +6094,22 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F81" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="H81" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="I81" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J81" t="s">
         <v>4</v>
@@ -6152,22 +6138,22 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="I82" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J82" t="s">
         <v>4</v>
@@ -6196,22 +6182,22 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F83" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="H83" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="I83" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J83" t="s">
         <v>4</v>
@@ -6240,22 +6226,22 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="H84" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="I84" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J84" t="s">
         <v>4</v>
@@ -6284,22 +6270,22 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="H85" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J85" t="s">
         <v>4</v>
@@ -6328,22 +6314,22 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="H86" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="I86" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J86" t="s">
         <v>4</v>
@@ -6372,22 +6358,22 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G87" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="H87" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="I87" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J87" t="s">
         <v>4</v>
@@ -6416,22 +6402,22 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F88" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G88" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="H88" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="I88" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J88" t="s">
         <v>4</v>
@@ -6460,22 +6446,22 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F89" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="H89" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I89" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J89" t="s">
         <v>4</v>
@@ -6504,22 +6490,22 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G90" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="I90" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J90" t="s">
         <v>4</v>
@@ -6548,22 +6534,22 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F91" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G91" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="H91" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="I91" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J91" t="s">
         <v>4</v>
@@ -6592,22 +6578,22 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G92" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H92" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="I92" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J92" t="s">
         <v>4</v>
@@ -6636,22 +6622,22 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F93" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="H93" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="I93" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J93" t="s">
         <v>4</v>
@@ -6680,22 +6666,22 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G94" t="s">
+        <v>315</v>
+      </c>
+      <c r="H94" t="s">
+        <v>316</v>
+      </c>
+      <c r="I94" t="s">
         <v>289</v>
-      </c>
-      <c r="H94" t="s">
-        <v>290</v>
-      </c>
-      <c r="I94" t="s">
-        <v>534</v>
       </c>
       <c r="J94" t="s">
         <v>4</v>
@@ -6724,22 +6710,22 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F95" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G95" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="H95" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J95" t="s">
         <v>4</v>
@@ -6768,22 +6754,22 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G96" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="H96" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="I96" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J96" t="s">
         <v>4</v>
@@ -6812,22 +6798,22 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="H97" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="I97" t="s">
-        <v>534</v>
+        <v>289</v>
       </c>
       <c r="J97" t="s">
         <v>4</v>
@@ -6850,28 +6836,28 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="F98" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G98" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="I98" t="s">
-        <v>535</v>
+        <v>327</v>
       </c>
       <c r="J98" t="s">
         <v>4</v>
@@ -6897,25 +6883,25 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="F99" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="G99" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="J99" t="s">
         <v>4</v>
@@ -6941,25 +6927,25 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E100" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="F100" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="G100" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="H100" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="I100" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="J100" t="s">
         <v>4</v>
@@ -6985,25 +6971,25 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="G101" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="H101" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="I101" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="J101" t="s">
         <v>4</v>
@@ -7026,28 +7012,28 @@
         <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E102" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F102" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="G102" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="H102" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I102" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="J102" t="s">
         <v>4</v>
@@ -7070,28 +7056,28 @@
         <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E103" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F103" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="H103" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="I103" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="J103" t="s">
         <v>4</v>
@@ -7114,28 +7100,28 @@
         <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D104" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E104" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F104" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="H104" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="I104" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="J104" t="s">
         <v>4</v>
@@ -7158,28 +7144,28 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D105" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E105" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F105" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="H105" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="I105" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
       <c r="J105" t="s">
         <v>4</v>
@@ -7208,22 +7194,22 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E106" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="F106" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="G106" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="H106" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="I106" t="s">
-        <v>538</v>
+        <v>352</v>
       </c>
       <c r="J106" t="s">
         <v>4</v>
@@ -7252,22 +7238,22 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E107" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="F107" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="G107" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="H107" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="I107" t="s">
-        <v>538</v>
+        <v>352</v>
       </c>
       <c r="J107" t="s">
         <v>4</v>
@@ -7296,22 +7282,22 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F108" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="G108" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="H108" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="I108" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="J108" t="s">
         <v>4</v>
@@ -7340,22 +7326,22 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E109" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F109" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="G109" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="I109" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="J109" t="s">
         <v>4</v>
@@ -7384,22 +7370,22 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E110" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F110" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="H110" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I110" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="J110" t="s">
         <v>4</v>
@@ -7428,22 +7414,22 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E111" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F111" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G111" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="H111" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="I111" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="J111" t="s">
         <v>4</v>
@@ -7472,22 +7458,22 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E112" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F112" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G112" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="H112" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="I112" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="J112" t="s">
         <v>4</v>
@@ -7510,28 +7496,28 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E113" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="F113" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="G113" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="H113" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="I113" t="s">
-        <v>540</v>
+        <v>371</v>
       </c>
       <c r="J113" t="s">
         <v>4</v>
@@ -7554,28 +7540,28 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E114" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="F114" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="G114" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="H114" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="I114" t="s">
-        <v>540</v>
+        <v>371</v>
       </c>
       <c r="J114" t="s">
         <v>4</v>
@@ -7598,28 +7584,28 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E115" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="F115" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="G115" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="H115" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="I115" t="s">
-        <v>540</v>
+        <v>371</v>
       </c>
       <c r="J115" t="s">
         <v>4</v>
@@ -7651,19 +7637,19 @@
         <v>17</v>
       </c>
       <c r="E116" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F116" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="G116" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="H116" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="I116" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L116">
         <v>36.576073149999999</v>
@@ -7689,19 +7675,19 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F117" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="G117" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="H117" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="I117" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="J117" t="s">
         <v>5</v>
@@ -7733,19 +7719,19 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F118" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="G118" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="H118" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="I118" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="J118" t="s">
         <v>5</v>
@@ -7777,19 +7763,19 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F119" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="G119" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="H119" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="I119" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="J119" t="s">
         <v>5</v>
@@ -7821,19 +7807,19 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F120" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="G120" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="H120" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="I120" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="J120" t="s">
         <v>5</v>
@@ -7865,19 +7851,19 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F121" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="G121" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="H121" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="I121" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="J121" t="s">
         <v>5</v>
@@ -7909,19 +7895,19 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F122" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G122" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="H122" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="I122" t="s">
-        <v>542</v>
+        <v>396</v>
       </c>
       <c r="J122" t="s">
         <v>5</v>
@@ -7953,19 +7939,19 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F123" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G123" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="H123" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="I123" t="s">
-        <v>542</v>
+        <v>396</v>
       </c>
       <c r="J123" t="s">
         <v>5</v>
@@ -7997,19 +7983,19 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F124" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G124" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="H124" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="I124" t="s">
-        <v>542</v>
+        <v>396</v>
       </c>
       <c r="J124" t="s">
         <v>5</v>
@@ -8041,19 +8027,19 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F125" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="G125" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="H125" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="I125" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J125" t="s">
         <v>4</v>
@@ -8085,19 +8071,19 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F126" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="G126" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="H126" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="I126" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J126" t="s">
         <v>4</v>
@@ -8129,19 +8115,19 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F127" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="G127" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="H127" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="I127" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J127" t="s">
         <v>4</v>
@@ -8173,19 +8159,19 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F128" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="G128" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="H128" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="I128" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J128" t="s">
         <v>4</v>
@@ -8217,19 +8203,19 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F129" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="G129" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="H129" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="I129" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J129" t="s">
         <v>4</v>
@@ -8261,19 +8247,19 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="G130" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="H130" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="I130" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J130" t="s">
         <v>4</v>
@@ -8305,19 +8291,19 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F131" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G131" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="H131" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="I131" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J131" t="s">
         <v>4</v>
@@ -8349,19 +8335,19 @@
         <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F132" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G132" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="H132" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="I132" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J132" t="s">
         <v>4</v>
@@ -8393,19 +8379,19 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F133" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G133" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="H133" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="I133" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J133" t="s">
         <v>4</v>
@@ -8437,19 +8423,19 @@
         <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F134" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G134" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="H134" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="I134" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J134" t="s">
         <v>4</v>
@@ -8481,19 +8467,19 @@
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F135" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G135" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="H135" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="I135" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J135" t="s">
         <v>4</v>
@@ -8525,19 +8511,19 @@
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F136" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="G136" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="H136" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="I136" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J136" t="s">
         <v>4</v>
@@ -8569,19 +8555,19 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F137" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="G137" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="H137" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="I137" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J137" t="s">
         <v>4</v>
@@ -8613,19 +8599,19 @@
         <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F138" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="G138" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="H138" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="I138" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="J138" t="s">
         <v>4</v>
@@ -8657,19 +8643,19 @@
         <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F139" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="G139" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="H139" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="I139" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J139" t="s">
         <v>4</v>
@@ -8701,19 +8687,19 @@
         <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F140" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="G140" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="H140" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="I140" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J140" t="s">
         <v>4</v>
@@ -8745,19 +8731,19 @@
         <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F141" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="G141" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="H141" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="I141" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J141" t="s">
         <v>4</v>
@@ -8789,19 +8775,19 @@
         <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F142" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="G142" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="H142" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="I142" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J142" t="s">
         <v>4</v>
@@ -8833,19 +8819,19 @@
         <v>17</v>
       </c>
       <c r="E143" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F143" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="G143" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="H143" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="I143" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J143" t="s">
         <v>4</v>
@@ -8877,19 +8863,19 @@
         <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F144" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="G144" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="H144" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="I144" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J144" t="s">
         <v>4</v>
@@ -8921,19 +8907,19 @@
         <v>17</v>
       </c>
       <c r="E145" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F145" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="G145" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="H145" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="I145" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J145" t="s">
         <v>4</v>
@@ -8965,19 +8951,19 @@
         <v>17</v>
       </c>
       <c r="E146" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="F146" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="G146" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="H146" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="I146" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
       <c r="J146" t="s">
         <v>4</v>
@@ -9009,19 +8995,19 @@
         <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="F147" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="G147" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="H147" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="I147" t="s">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="J147" t="s">
         <v>4</v>
@@ -9053,19 +9039,19 @@
         <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="F148" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="G148" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="H148" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="I148" t="s">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="J148" t="s">
         <v>4</v>
@@ -9097,19 +9083,19 @@
         <v>17</v>
       </c>
       <c r="E149" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="F149" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="G149" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="H149" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="I149" t="s">
-        <v>546</v>
+        <v>466</v>
       </c>
       <c r="J149" t="s">
         <v>4</v>
@@ -9138,22 +9124,22 @@
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E150" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F150" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="G150" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="H150" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I150" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="J150" t="s">
         <v>5</v>
@@ -9182,22 +9168,22 @@
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E151" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F151" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="G151" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="H151" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="I151" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="J151" t="s">
         <v>5</v>
@@ -9226,22 +9212,22 @@
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E152" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F152" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="G152" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="H152" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="I152" t="s">
-        <v>547</v>
+        <v>470</v>
       </c>
       <c r="J152" t="s">
         <v>5</v>
@@ -9270,22 +9256,22 @@
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E153" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F153" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G153" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="H153" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="I153" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="J153" t="s">
         <v>5</v>
@@ -9314,22 +9300,22 @@
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E154" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F154" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G154" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="H154" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="I154" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="J154" t="s">
         <v>5</v>
@@ -9358,22 +9344,22 @@
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E155" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F155" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G155" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="H155" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="I155" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="J155" t="s">
         <v>5</v>
@@ -9402,22 +9388,22 @@
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E156" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="F156" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G156" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="H156" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="I156" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="J156" t="s">
         <v>5</v>
@@ -9449,19 +9435,19 @@
         <v>17</v>
       </c>
       <c r="E157" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F157" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G157" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="H157" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I157" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J157" t="s">
         <v>4</v>
@@ -9493,19 +9479,19 @@
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F158" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G158" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="H158" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="I158" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J158" t="s">
         <v>4</v>
@@ -9537,19 +9523,19 @@
         <v>17</v>
       </c>
       <c r="E159" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F159" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G159" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="H159" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="I159" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J159" t="s">
         <v>4</v>
@@ -9581,19 +9567,19 @@
         <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F160" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G160" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="H160" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="I160" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J160" t="s">
         <v>4</v>
@@ -9625,19 +9611,19 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F161" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G161" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="H161" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="I161" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J161" t="s">
         <v>4</v>
@@ -9669,19 +9655,19 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F162" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="G162" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="H162" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="I162" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J162" t="s">
         <v>4</v>
@@ -9713,19 +9699,19 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F163" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="G163" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="H163" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="I163" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J163" t="s">
         <v>4</v>
@@ -9757,19 +9743,19 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F164" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="G164" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="H164" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="I164" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="J164" t="s">
         <v>4</v>
@@ -9801,19 +9787,19 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F165" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G165" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="H165" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I165" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J165" t="s">
         <v>4</v>
@@ -9845,19 +9831,19 @@
         <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F166" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G166" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="H166" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="I166" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J166" t="s">
         <v>4</v>
@@ -9889,19 +9875,19 @@
         <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F167" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G167" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="H167" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="I167" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J167" t="s">
         <v>4</v>
@@ -9933,19 +9919,19 @@
         <v>17</v>
       </c>
       <c r="E168" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F168" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G168" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="H168" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="I168" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J168" t="s">
         <v>4</v>
@@ -9977,19 +9963,19 @@
         <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F169" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G169" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="H169" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="I169" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J169" t="s">
         <v>4</v>
@@ -10021,19 +10007,19 @@
         <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F170" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G170" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="H170" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="I170" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J170" t="s">
         <v>4</v>
@@ -10065,19 +10051,19 @@
         <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F171" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G171" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="H171" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="I171" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J171" t="s">
         <v>4</v>
@@ -10109,19 +10095,19 @@
         <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F172" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G172" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="H172" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="I172" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J172" t="s">
         <v>4</v>
@@ -10153,19 +10139,19 @@
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F173" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G173" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="H173" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="I173" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="J173" t="s">
         <v>4</v>
@@ -10194,22 +10180,22 @@
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F174" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G174" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="H174" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I174" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J174" t="s">
         <v>4</v>
@@ -10238,22 +10224,22 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F175" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G175" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="H175" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="I175" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J175" t="s">
         <v>4</v>
@@ -10282,22 +10268,22 @@
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F176" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G176" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="H176" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="I176" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J176" t="s">
         <v>4</v>
@@ -10326,22 +10312,22 @@
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F177" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G177" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="H177" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="I177" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J177" t="s">
         <v>4</v>
@@ -10370,22 +10356,22 @@
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F178" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G178" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="H178" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="I178" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J178" t="s">
         <v>4</v>
@@ -10414,22 +10400,22 @@
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F179" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G179" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="H179" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="I179" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J179" t="s">
         <v>4</v>
@@ -10458,22 +10444,22 @@
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F180" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G180" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="H180" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="I180" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J180" t="s">
         <v>4</v>
@@ -10502,22 +10488,22 @@
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="F181" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="G181" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="H181" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="I181" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="J181" t="s">
         <v>4</v>
@@ -10546,22 +10532,22 @@
         <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E182" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="F182" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="G182" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="H182" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="I182" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J182" t="s">
         <v>4</v>
@@ -10590,22 +10576,22 @@
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E183" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="F183" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="G183" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="H183" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="I183" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J183" t="s">
         <v>4</v>
@@ -10634,22 +10620,22 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E184" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="F184" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="G184" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="H184" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="I184" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J184" t="s">
         <v>4</v>
@@ -10678,22 +10664,22 @@
         <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E185" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="F185" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="G185" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="H185" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="I185" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J185" t="s">
         <v>4</v>
@@ -10722,22 +10708,22 @@
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E186" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="F186" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="G186" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="H186" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="I186" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="J186" t="s">
         <v>4</v>
@@ -10756,10 +10742,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{92659201-EDCA-45F2-8130-D818ABF6B6E1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>